--- a/biology/Zoologie/Agyneta/Agyneta.xlsx
+++ b/biology/Zoologie/Agyneta/Agyneta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agyneta est un genre d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agyneta est un genre d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Asie, en Europe, en Afrique et en Océanie paramètre de Bioref « WSC non-famill » non reconnu .
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 10/02/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 10/02/2024) :
 Agyneta adami (Millidge, 1991)
 Agyneta affinis (Kulczyński, 1898)
 Agyneta affinisoides Tanasevitch, 1984
@@ -746,7 +762,7 @@
 Agyneta watertoni Dupérré, 2013
 Agyneta yukona Dupérré, 2013
 Agyneta yulungiensis Wunderlich, 1983
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Agyneta bigibber Wunderlich, 1988
 † Agyneta fastigata Wunderlich, 1988
 † Agyneta separata Wunderlich, 1988</t>
@@ -777,12 +793,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Hull en 1911.
-Anomalaria[3] a été placé en synonymie par Simon en 1929[4].
-Eupolis[5], Meioneta[6], Aprolagus[4], Ischnyphantes[4] et Syedrula[4] ont été placés en synonymie par Saaristo en 1973[7].
-Gnathantes[8] a été placé en synonymie par Crawford en 1988[9].
+Anomalaria a été placé en synonymie par Simon en 1929.
+Eupolis, Meioneta, Aprolagus, Ischnyphantes et Syedrula ont été placés en synonymie par Saaristo en 1973.
+Gnathantes a été placé en synonymie par Crawford en 1988.
 </t>
         </is>
       </c>
@@ -811,7 +829,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hull, 1911 : « Papers on spiders. » Transactions of the Natural History Society of Northumberland, (N.S.) vol. 3, no 3, p. 573-590.</t>
         </is>
